--- a/Code/Results/Cases/Case_4_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.186368585206623</v>
+        <v>0.5258102763072543</v>
       </c>
       <c r="C2">
-        <v>0.1769230207178936</v>
+        <v>0.05157610560628711</v>
       </c>
       <c r="D2">
-        <v>0.1967731893374491</v>
+        <v>0.07795294679323206</v>
       </c>
       <c r="E2">
-        <v>0.2891503674511853</v>
+        <v>0.1262542582653552</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.280797801867465</v>
+        <v>1.322609435993741</v>
       </c>
       <c r="H2">
-        <v>0.7947053533854671</v>
+        <v>1.209598308510806</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.267146571746707</v>
+        <v>0.5003313440759314</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6765562078236584</v>
+        <v>0.2801782571528904</v>
       </c>
       <c r="N2">
-        <v>1.333414785594144</v>
+        <v>2.216355202512304</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.026705096885877</v>
+        <v>0.4842161353644201</v>
       </c>
       <c r="C3">
-        <v>0.1531589819932435</v>
+        <v>0.04496850578706812</v>
       </c>
       <c r="D3">
-        <v>0.1702691268740608</v>
+        <v>0.07078566923591723</v>
       </c>
       <c r="E3">
-        <v>0.2502803653961223</v>
+        <v>0.116341087167747</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.181083893877002</v>
+        <v>1.302129554721844</v>
       </c>
       <c r="H3">
-        <v>0.7558735259440539</v>
+        <v>1.205095884187273</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.09484651921818</v>
+        <v>0.4547432370559079</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5845617834714858</v>
+        <v>0.2562795544629779</v>
       </c>
       <c r="N3">
-        <v>1.34952382947867</v>
+        <v>2.225051549865086</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9298288551228495</v>
+        <v>0.4589542006571321</v>
       </c>
       <c r="C4">
-        <v>0.1387103544931563</v>
+        <v>0.04091563911713081</v>
       </c>
       <c r="D4">
-        <v>0.1542107591361201</v>
+        <v>0.06642250110409975</v>
       </c>
       <c r="E4">
-        <v>0.2268833391905147</v>
+        <v>0.1103314184761999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.122210760435735</v>
+        <v>1.29027882387264</v>
       </c>
       <c r="H4">
-        <v>0.7333323992892247</v>
+        <v>1.202855476744162</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9902481354113775</v>
+        <v>0.4269901258888638</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5289250111716228</v>
+        <v>0.2417577190666336</v>
       </c>
       <c r="N4">
-        <v>1.361162014229635</v>
+        <v>2.231035679859957</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.890603343247534</v>
+        <v>0.4487292503866911</v>
       </c>
       <c r="C5">
-        <v>0.1328518811681931</v>
+        <v>0.03926504994738877</v>
       </c>
       <c r="D5">
-        <v>0.1477140046221876</v>
+        <v>0.06465385431555148</v>
       </c>
       <c r="E5">
-        <v>0.2174520756022105</v>
+        <v>0.1079015473853246</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.098762170126491</v>
+        <v>1.285631066629549</v>
       </c>
       <c r="H5">
-        <v>0.7244517486455919</v>
+        <v>1.202074153235003</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9478811236916158</v>
+        <v>0.4157401353682815</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.506437687790843</v>
+        <v>0.2358778382335416</v>
       </c>
       <c r="N5">
-        <v>1.366322472590355</v>
+        <v>2.233636060642169</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8841041341069626</v>
+        <v>0.4470355975948337</v>
       </c>
       <c r="C6">
-        <v>0.1318806872828162</v>
+        <v>0.03899102828306411</v>
       </c>
       <c r="D6">
-        <v>0.1466378770879544</v>
+        <v>0.06436073641739881</v>
       </c>
       <c r="E6">
-        <v>0.2158918433808665</v>
+        <v>0.1074992162586952</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.094899968249052</v>
+        <v>1.284870257167157</v>
       </c>
       <c r="H6">
-        <v>0.7229949245292175</v>
+        <v>1.201952363367383</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9408604847024264</v>
+        <v>0.4138756768630003</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5027140798291754</v>
+        <v>0.2349037664237272</v>
       </c>
       <c r="N6">
-        <v>1.367203996420855</v>
+        <v>2.234077616182624</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.929298873765191</v>
+        <v>0.4588160222475608</v>
       </c>
       <c r="C7">
-        <v>0.1386312339069775</v>
+        <v>0.04089337479774713</v>
       </c>
       <c r="D7">
-        <v>0.154122959547351</v>
+        <v>0.06639861062426178</v>
       </c>
       <c r="E7">
-        <v>0.2267557467259849</v>
+        <v>0.1102985713184381</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.121892389056669</v>
+        <v>1.29021540838248</v>
       </c>
       <c r="H7">
-        <v>0.733211424969042</v>
+        <v>1.202844406630078</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9896757700273326</v>
+        <v>0.4268381634945513</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5286210255178929</v>
+        <v>0.2416782680052521</v>
       </c>
       <c r="N7">
-        <v>1.361229945644709</v>
+        <v>2.231070094763766</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.13105207726133</v>
+        <v>0.5114110004659551</v>
       </c>
       <c r="C8">
-        <v>0.1686955815073361</v>
+        <v>0.0492968802525553</v>
       </c>
       <c r="D8">
-        <v>0.1875855728319209</v>
+        <v>0.07547382901914546</v>
       </c>
       <c r="E8">
-        <v>0.2756413187323545</v>
+        <v>0.1228200438766649</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.245897990290828</v>
+        <v>1.315397369169887</v>
       </c>
       <c r="H8">
-        <v>0.7810320267480364</v>
+        <v>1.20793701369459</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.20746289382663</v>
+        <v>0.4845629584565643</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.644642869975435</v>
+        <v>0.2719062027331915</v>
       </c>
       <c r="N8">
-        <v>1.338593108790448</v>
+        <v>2.219219762286656</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.537788950412761</v>
+        <v>0.6167614052727401</v>
       </c>
       <c r="C9">
-        <v>0.2290998633045405</v>
+        <v>0.06581390327141889</v>
       </c>
       <c r="D9">
-        <v>0.2552554644805411</v>
+        <v>0.09357240399332056</v>
       </c>
       <c r="E9">
-        <v>0.3759620307663027</v>
+        <v>0.1479990570136209</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.510122613846363</v>
+        <v>1.370552455800862</v>
       </c>
       <c r="H9">
-        <v>0.8862335087597728</v>
+        <v>1.222089820241564</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.646128572997043</v>
+        <v>0.5996690746065099</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8802831005278264</v>
+        <v>0.3324088312989204</v>
       </c>
       <c r="N9">
-        <v>1.309121043257548</v>
+        <v>2.201108333057959</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.846316995811662</v>
+        <v>0.6955382876831777</v>
       </c>
       <c r="C10">
-        <v>0.2748501808979285</v>
+        <v>0.07797903946826068</v>
       </c>
       <c r="D10">
-        <v>0.3067443197353441</v>
+        <v>0.1070605238471671</v>
       </c>
       <c r="E10">
-        <v>0.4535139554949907</v>
+        <v>0.166898689211834</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.720738802795751</v>
+        <v>1.414640326666984</v>
       </c>
       <c r="H10">
-        <v>0.9721680982623013</v>
+        <v>1.235041228300702</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.978713494320431</v>
+        <v>0.6854350325540963</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.060499822057274</v>
+        <v>0.3776386000478595</v>
       </c>
       <c r="N10">
-        <v>1.298175211522249</v>
+        <v>2.190946084181192</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.989510332190662</v>
+        <v>0.7316812235734744</v>
       </c>
       <c r="C11">
-        <v>0.2960837597468355</v>
+        <v>0.08352140494045557</v>
       </c>
       <c r="D11">
-        <v>0.3306821110312228</v>
+        <v>0.1132396932661379</v>
       </c>
       <c r="E11">
-        <v>0.4899146141438351</v>
+        <v>0.1755880424070071</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.821047707434474</v>
+        <v>1.435481569639023</v>
       </c>
       <c r="H11">
-        <v>1.013558014194587</v>
+        <v>1.241490739572896</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.133057872577041</v>
+        <v>0.7247202267155046</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.144562084955382</v>
+        <v>0.3983908861920611</v>
       </c>
       <c r="N11">
-        <v>1.295925060169409</v>
+        <v>2.187009901303057</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.044210318169917</v>
+        <v>0.7454120974611271</v>
       </c>
       <c r="C12">
-        <v>0.3041964799505195</v>
+        <v>0.08562146457222752</v>
       </c>
       <c r="D12">
-        <v>0.3398327870742577</v>
+        <v>0.1155859161881665</v>
       </c>
       <c r="E12">
-        <v>0.5038867916211913</v>
+        <v>0.1788919982743167</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.859764311387408</v>
+        <v>1.443487276549575</v>
       </c>
       <c r="H12">
-        <v>1.029600938455047</v>
+        <v>1.244013430161232</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.192017592458683</v>
+        <v>0.7396357655707959</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.176743749380577</v>
+        <v>0.4062751686865482</v>
       </c>
       <c r="N12">
-        <v>1.29550360306736</v>
+        <v>2.185618457278139</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.032407393358795</v>
+        <v>0.7424529334719239</v>
       </c>
       <c r="C13">
-        <v>0.3024458616577022</v>
+        <v>0.08516912066431814</v>
       </c>
       <c r="D13">
-        <v>0.3378580004613809</v>
+        <v>0.1150803335245598</v>
       </c>
       <c r="E13">
-        <v>0.5008688115128948</v>
+        <v>0.1781798279134463</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.851392000339274</v>
+        <v>1.441758042638554</v>
       </c>
       <c r="H13">
-        <v>1.026128708750434</v>
+        <v>1.243466544818062</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.179295483923084</v>
+        <v>0.7364216943028907</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.169796470946388</v>
+        <v>0.4045759918866239</v>
       </c>
       <c r="N13">
-        <v>1.29557456599477</v>
+        <v>2.18591371622297</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.99400058835775</v>
+        <v>0.732809981309515</v>
       </c>
       <c r="C14">
-        <v>0.2967496846934239</v>
+        <v>0.083694151870219</v>
       </c>
       <c r="D14">
-        <v>0.3314331477231036</v>
+        <v>0.1134325916563199</v>
       </c>
       <c r="E14">
-        <v>0.4910601809833608</v>
+        <v>0.1758595889249364</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.824217760316316</v>
+        <v>1.436137923989122</v>
       </c>
       <c r="H14">
-        <v>1.01487023200167</v>
+        <v>1.241696670439438</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.137897791912934</v>
+        <v>0.7259465520180868</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.147202387496861</v>
+        <v>0.3990390107276269</v>
       </c>
       <c r="N14">
-        <v>1.295881522550999</v>
+        <v>2.186893438115291</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.970539381859652</v>
+        <v>0.7269091733141124</v>
       </c>
       <c r="C15">
-        <v>0.2932703520614552</v>
+        <v>0.08279086079059539</v>
       </c>
       <c r="D15">
-        <v>0.3275093063911356</v>
+        <v>0.1124241254733107</v>
       </c>
       <c r="E15">
-        <v>0.485077445029404</v>
+        <v>0.1744401403293807</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.807670731481721</v>
+        <v>1.432710249493994</v>
       </c>
       <c r="H15">
-        <v>1.008023435094657</v>
+        <v>1.240623047293496</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.112609639163054</v>
+        <v>0.7195353239934263</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.133409898923432</v>
+        <v>0.3956508267718988</v>
       </c>
       <c r="N15">
-        <v>1.296126827254241</v>
+        <v>2.187506462965445</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.837021744059086</v>
+        <v>0.6931824544190874</v>
       </c>
       <c r="C16">
-        <v>0.2734719455100105</v>
+        <v>0.07761700841743391</v>
       </c>
       <c r="D16">
-        <v>0.3051912837831736</v>
+        <v>0.1066575790872832</v>
       </c>
       <c r="E16">
-        <v>0.4511598767708449</v>
+        <v>0.1663326912833298</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.714280956860875</v>
+        <v>1.413294161711917</v>
       </c>
       <c r="H16">
-        <v>0.9695126510862906</v>
+        <v>1.234630978456636</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.968694269996121</v>
+        <v>0.6828731068165723</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.05505216748044</v>
+        <v>0.3762859845555013</v>
       </c>
       <c r="N16">
-        <v>1.298380351669564</v>
+        <v>2.191217171304174</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.755886551452278</v>
+        <v>0.6725709532546489</v>
       </c>
       <c r="C17">
-        <v>0.2614419557152985</v>
+        <v>0.07444522189258862</v>
       </c>
       <c r="D17">
-        <v>0.2916399374524019</v>
+        <v>0.1031311445434113</v>
       </c>
       <c r="E17">
-        <v>0.4306579591363899</v>
+        <v>0.1613827509842238</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.658199174561247</v>
+        <v>1.401584642175635</v>
       </c>
       <c r="H17">
-        <v>0.9465025551558597</v>
+        <v>1.231098045836319</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.881238427769205</v>
+        <v>0.6604513365452647</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.007548986965453</v>
+        <v>0.3644518968540922</v>
       </c>
       <c r="N17">
-        <v>1.300487705107486</v>
+        <v>2.193669699223705</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.709482868092437</v>
+        <v>0.6607446415588925</v>
       </c>
       <c r="C18">
-        <v>0.2545615464000548</v>
+        <v>0.07262167844957901</v>
       </c>
       <c r="D18">
-        <v>0.2838932820680498</v>
+        <v>0.1011069092662922</v>
       </c>
       <c r="E18">
-        <v>0.4189696282006992</v>
+        <v>0.158544301292892</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.626360252787919</v>
+        <v>1.394923528151224</v>
       </c>
       <c r="H18">
-        <v>0.9334814705839278</v>
+        <v>1.229118492816497</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.831218318122041</v>
+        <v>0.6475803074610553</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9804189730763326</v>
+        <v>0.3576618830092144</v>
       </c>
       <c r="N18">
-        <v>1.30195416368133</v>
+        <v>2.19514493964347</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.693814640549448</v>
+        <v>0.6567454098041594</v>
       </c>
       <c r="C19">
-        <v>0.2522383156641439</v>
+        <v>0.07200439023364424</v>
       </c>
       <c r="D19">
-        <v>0.2812782515390211</v>
+        <v>0.100422235986386</v>
       </c>
       <c r="E19">
-        <v>0.4150292279203001</v>
+        <v>0.1575847237604364</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.615649461899693</v>
+        <v>1.392680861200915</v>
       </c>
       <c r="H19">
-        <v>0.9291083379210932</v>
+        <v>1.228457260998113</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.814328694683667</v>
+        <v>0.6432267485680541</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9712648560795643</v>
+        <v>0.3553657473443792</v>
       </c>
       <c r="N19">
-        <v>1.302493271865089</v>
+        <v>2.195655516872975</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.764495834300078</v>
+        <v>0.6747620925435172</v>
       </c>
       <c r="C20">
-        <v>0.2627184616804641</v>
+        <v>0.07478278223510415</v>
       </c>
       <c r="D20">
-        <v>0.2930774803778036</v>
+        <v>0.1035061170960745</v>
       </c>
       <c r="E20">
-        <v>0.4328294934235473</v>
+        <v>0.1619087858767259</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.664125345026406</v>
+        <v>1.402823488407847</v>
       </c>
       <c r="H20">
-        <v>0.948929630963562</v>
+        <v>1.231468698048019</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.890518533803743</v>
+        <v>0.6628355434584989</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.012585508369312</v>
+        <v>0.3657099307054921</v>
       </c>
       <c r="N20">
-        <v>1.300236784535997</v>
+        <v>2.193401933812865</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.005268115940595</v>
+        <v>0.7356411454967429</v>
       </c>
       <c r="C21">
-        <v>0.2984207378827932</v>
+        <v>0.08412735040815278</v>
       </c>
       <c r="D21">
-        <v>0.333317849355268</v>
+        <v>0.1139164016852021</v>
       </c>
       <c r="E21">
-        <v>0.493935881952396</v>
+        <v>0.1765407310717393</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.832178910176367</v>
+        <v>1.437785601444062</v>
       </c>
       <c r="H21">
-        <v>1.018166760333628</v>
+        <v>1.242214341922988</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.150042747152099</v>
+        <v>0.7290222920625808</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.153828917385198</v>
+        <v>0.4006646518823729</v>
       </c>
       <c r="N21">
-        <v>1.295779349694129</v>
+        <v>2.186602977525141</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.165436308254925</v>
+        <v>0.7756875985171519</v>
       </c>
       <c r="C22">
-        <v>0.322180310491035</v>
+        <v>0.0902421003896734</v>
       </c>
       <c r="D22">
-        <v>0.3601246740660002</v>
+        <v>0.1207569114959313</v>
       </c>
       <c r="E22">
-        <v>0.5349831812844386</v>
+        <v>0.1861822954207497</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.946323357653426</v>
+        <v>1.461297696294537</v>
       </c>
       <c r="H22">
-        <v>1.065591998594641</v>
+        <v>1.249705965270948</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.322686540377759</v>
+        <v>0.7725071329994648</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.248201844209547</v>
+        <v>0.4236603916699693</v>
       </c>
       <c r="N22">
-        <v>1.295397037213078</v>
+        <v>2.182737285317131</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.079670402999966</v>
+        <v>0.7542903380848998</v>
       </c>
       <c r="C23">
-        <v>0.3094562791275735</v>
+        <v>0.08697782698899914</v>
       </c>
       <c r="D23">
-        <v>0.3457666934682919</v>
+        <v>0.1171026130422916</v>
       </c>
       <c r="E23">
-        <v>0.5129641756875145</v>
+        <v>0.1810291118592247</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.884977282724321</v>
+        <v>1.448688034178389</v>
       </c>
       <c r="H23">
-        <v>1.040067234992136</v>
+        <v>1.245664595371693</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.23023940037649</v>
+        <v>0.7492774989346174</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.197626567009507</v>
+        <v>0.4113732055137547</v>
       </c>
       <c r="N23">
-        <v>1.29535576711632</v>
+        <v>2.184747487339919</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.760602828666862</v>
+        <v>0.6737714052423769</v>
       </c>
       <c r="C24">
-        <v>0.2621412426955345</v>
+        <v>0.07463017134044492</v>
       </c>
       <c r="D24">
-        <v>0.2924274304477024</v>
+        <v>0.1033365821738386</v>
       </c>
       <c r="E24">
-        <v>0.4318474379632207</v>
+        <v>0.1616709426745544</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.661444873655171</v>
+        <v>1.402263185387795</v>
       </c>
       <c r="H24">
-        <v>0.9478317058688219</v>
+        <v>1.231300965521825</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.886322195349067</v>
+        <v>0.6617575826594759</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.010307939469399</v>
+        <v>0.3651411313972233</v>
       </c>
       <c r="N24">
-        <v>1.300349434563543</v>
+        <v>2.193522787305838</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.426281083642664</v>
+        <v>0.5880217089342636</v>
       </c>
       <c r="C25">
-        <v>0.2125563262896293</v>
+        <v>0.06134084134396289</v>
       </c>
       <c r="D25">
-        <v>0.2366784122591525</v>
+        <v>0.08864320381172774</v>
       </c>
       <c r="E25">
-        <v>0.3482357684408299</v>
+        <v>0.1411185635444241</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.436032417127308</v>
+        <v>1.355008751530363</v>
       </c>
       <c r="H25">
-        <v>0.8563868946216928</v>
+        <v>1.217813706960129</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.525901773504529</v>
+        <v>0.5683220290439124</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8154581651550856</v>
+        <v>0.3159068272816086</v>
       </c>
       <c r="N25">
-        <v>1.315339888632039</v>
+        <v>2.205457161484006</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5258102763072543</v>
+        <v>1.186368585206765</v>
       </c>
       <c r="C2">
-        <v>0.05157610560628711</v>
+        <v>0.176923020717922</v>
       </c>
       <c r="D2">
-        <v>0.07795294679323206</v>
+        <v>0.1967731893374491</v>
       </c>
       <c r="E2">
-        <v>0.1262542582653552</v>
+        <v>0.2891503674511995</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.322609435993741</v>
+        <v>1.280797801867408</v>
       </c>
       <c r="H2">
-        <v>1.209598308510806</v>
+        <v>0.7947053533854955</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5003313440759314</v>
+        <v>1.267146571746679</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2801782571528904</v>
+        <v>0.6765562078236513</v>
       </c>
       <c r="N2">
-        <v>2.216355202512304</v>
+        <v>1.333414785594101</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4842161353644201</v>
+        <v>1.026705096885934</v>
       </c>
       <c r="C3">
-        <v>0.04496850578706812</v>
+        <v>0.1531589819932577</v>
       </c>
       <c r="D3">
-        <v>0.07078566923591723</v>
+        <v>0.1702691268737624</v>
       </c>
       <c r="E3">
-        <v>0.116341087167747</v>
+        <v>0.2502803653960939</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.302129554721844</v>
+        <v>1.181083893876931</v>
       </c>
       <c r="H3">
-        <v>1.205095884187273</v>
+        <v>0.7558735259441534</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4547432370559079</v>
+        <v>1.094846519218123</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2562795544629779</v>
+        <v>0.5845617834714858</v>
       </c>
       <c r="N3">
-        <v>2.225051549865086</v>
+        <v>1.349523829478628</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4589542006571321</v>
+        <v>0.9298288551227358</v>
       </c>
       <c r="C4">
-        <v>0.04091563911713081</v>
+        <v>0.1387103544932984</v>
       </c>
       <c r="D4">
-        <v>0.06642250110409975</v>
+        <v>0.1542107591362196</v>
       </c>
       <c r="E4">
-        <v>0.1103314184761999</v>
+        <v>0.2268833391905076</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.29027882387264</v>
+        <v>1.122210760435777</v>
       </c>
       <c r="H4">
-        <v>1.202855476744162</v>
+        <v>0.7333323992892105</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4269901258888638</v>
+        <v>0.9902481354112922</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2417577190666336</v>
+        <v>0.528925011171637</v>
       </c>
       <c r="N4">
-        <v>2.231035679859957</v>
+        <v>1.36116201422962</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4487292503866911</v>
+        <v>0.8906033432475056</v>
       </c>
       <c r="C5">
-        <v>0.03926504994738877</v>
+        <v>0.1328518811681931</v>
       </c>
       <c r="D5">
-        <v>0.06465385431555148</v>
+        <v>0.1477140046221734</v>
       </c>
       <c r="E5">
-        <v>0.1079015473853246</v>
+        <v>0.2174520756022389</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.285631066629549</v>
+        <v>1.098762170126562</v>
       </c>
       <c r="H5">
-        <v>1.202074153235003</v>
+        <v>0.7244517486456203</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4157401353682815</v>
+        <v>0.947881123691559</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2358778382335416</v>
+        <v>0.5064376877908359</v>
       </c>
       <c r="N5">
-        <v>2.233636060642169</v>
+        <v>1.366322472590412</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4470355975948337</v>
+        <v>0.8841041341069626</v>
       </c>
       <c r="C6">
-        <v>0.03899102828306411</v>
+        <v>0.1318806872826457</v>
       </c>
       <c r="D6">
-        <v>0.06436073641739881</v>
+        <v>0.1466378770878407</v>
       </c>
       <c r="E6">
-        <v>0.1074992162586952</v>
+        <v>0.2158918433808736</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.284870257167157</v>
+        <v>1.094899968249109</v>
       </c>
       <c r="H6">
-        <v>1.201952363367383</v>
+        <v>0.7229949245292175</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4138756768630003</v>
+        <v>0.9408604847024264</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2349037664237272</v>
+        <v>0.5027140798291612</v>
       </c>
       <c r="N6">
-        <v>2.234077616182624</v>
+        <v>1.367203996420869</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4588160222475608</v>
+        <v>0.9292988737652479</v>
       </c>
       <c r="C7">
-        <v>0.04089337479774713</v>
+        <v>0.1386312339069917</v>
       </c>
       <c r="D7">
-        <v>0.06639861062426178</v>
+        <v>0.1541229595472657</v>
       </c>
       <c r="E7">
-        <v>0.1102985713184381</v>
+        <v>0.2267557467259707</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.29021540838248</v>
+        <v>1.12189238905674</v>
       </c>
       <c r="H7">
-        <v>1.202844406630078</v>
+        <v>0.733211424969042</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4268381634945513</v>
+        <v>0.9896757700274463</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2416782680052521</v>
+        <v>0.5286210255178858</v>
       </c>
       <c r="N7">
-        <v>2.231070094763766</v>
+        <v>1.361229945644766</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5114110004659551</v>
+        <v>1.131052077261501</v>
       </c>
       <c r="C8">
-        <v>0.0492968802525553</v>
+        <v>0.1686955815072366</v>
       </c>
       <c r="D8">
-        <v>0.07547382901914546</v>
+        <v>0.1875855728319209</v>
       </c>
       <c r="E8">
-        <v>0.1228200438766649</v>
+        <v>0.2756413187323403</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.315397369169887</v>
+        <v>1.245897990290814</v>
       </c>
       <c r="H8">
-        <v>1.20793701369459</v>
+        <v>0.7810320267481501</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4845629584565643</v>
+        <v>1.207462893826602</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2719062027331915</v>
+        <v>0.6446428699754279</v>
       </c>
       <c r="N8">
-        <v>2.219219762286656</v>
+        <v>1.338593108790405</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6167614052727401</v>
+        <v>1.537788950412732</v>
       </c>
       <c r="C9">
-        <v>0.06581390327141889</v>
+        <v>0.2290998633046826</v>
       </c>
       <c r="D9">
-        <v>0.09357240399332056</v>
+        <v>0.2552554644805411</v>
       </c>
       <c r="E9">
-        <v>0.1479990570136209</v>
+        <v>0.3759620307663099</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.370552455800862</v>
+        <v>1.510122613846363</v>
       </c>
       <c r="H9">
-        <v>1.222089820241564</v>
+        <v>0.8862335087597728</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5996690746065099</v>
+        <v>1.646128572996986</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3324088312989204</v>
+        <v>0.8802831005278335</v>
       </c>
       <c r="N9">
-        <v>2.201108333057959</v>
+        <v>1.309121043257605</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6955382876831777</v>
+        <v>1.846316995811719</v>
       </c>
       <c r="C10">
-        <v>0.07797903946826068</v>
+        <v>0.2748501808979285</v>
       </c>
       <c r="D10">
-        <v>0.1070605238471671</v>
+        <v>0.3067443197353583</v>
       </c>
       <c r="E10">
-        <v>0.166898689211834</v>
+        <v>0.4535139554950192</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.414640326666984</v>
+        <v>1.720738802795722</v>
       </c>
       <c r="H10">
-        <v>1.235041228300702</v>
+        <v>0.9721680982622161</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6854350325540963</v>
+        <v>1.978713494320459</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3776386000478595</v>
+        <v>1.060499822057253</v>
       </c>
       <c r="N10">
-        <v>2.190946084181192</v>
+        <v>1.298175211522221</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7316812235734744</v>
+        <v>1.989510332190633</v>
       </c>
       <c r="C11">
-        <v>0.08352140494045557</v>
+        <v>0.2960837597470629</v>
       </c>
       <c r="D11">
-        <v>0.1132396932661379</v>
+        <v>0.3306821110314502</v>
       </c>
       <c r="E11">
-        <v>0.1755880424070071</v>
+        <v>0.4899146141438635</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.435481569639023</v>
+        <v>1.821047707434445</v>
       </c>
       <c r="H11">
-        <v>1.241490739572896</v>
+        <v>1.013558014194587</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7247202267155046</v>
+        <v>2.133057872577041</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3983908861920611</v>
+        <v>1.144562084955382</v>
       </c>
       <c r="N11">
-        <v>2.187009901303057</v>
+        <v>1.295925060169409</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7454120974611271</v>
+        <v>2.044210318169917</v>
       </c>
       <c r="C12">
-        <v>0.08562146457222752</v>
+        <v>0.3041964799505195</v>
       </c>
       <c r="D12">
-        <v>0.1155859161881665</v>
+        <v>0.3398327870742577</v>
       </c>
       <c r="E12">
-        <v>0.1788919982743167</v>
+        <v>0.5038867916212055</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.443487276549575</v>
+        <v>1.859764311387437</v>
       </c>
       <c r="H12">
-        <v>1.244013430161232</v>
+        <v>1.029600938455047</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7396357655707959</v>
+        <v>2.192017592458654</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4062751686865482</v>
+        <v>1.176743749380599</v>
       </c>
       <c r="N12">
-        <v>2.185618457278139</v>
+        <v>1.295503603067374</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7424529334719239</v>
+        <v>2.03240739335871</v>
       </c>
       <c r="C13">
-        <v>0.08516912066431814</v>
+        <v>0.3024458616576453</v>
       </c>
       <c r="D13">
-        <v>0.1150803335245598</v>
+        <v>0.3378580004615657</v>
       </c>
       <c r="E13">
-        <v>0.1781798279134463</v>
+        <v>0.5008688115128521</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.441758042638554</v>
+        <v>1.851392000339246</v>
       </c>
       <c r="H13">
-        <v>1.243466544818062</v>
+        <v>1.02612870875052</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7364216943028907</v>
+        <v>2.179295483923113</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4045759918866239</v>
+        <v>1.169796470946388</v>
       </c>
       <c r="N13">
-        <v>2.18591371622297</v>
+        <v>1.295574565994826</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.732809981309515</v>
+        <v>1.994000588357608</v>
       </c>
       <c r="C14">
-        <v>0.083694151870219</v>
+        <v>0.2967496846934239</v>
       </c>
       <c r="D14">
-        <v>0.1134325916563199</v>
+        <v>0.3314331477232031</v>
       </c>
       <c r="E14">
-        <v>0.1758595889249364</v>
+        <v>0.4910601809833395</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.436137923989122</v>
+        <v>1.824217760316344</v>
       </c>
       <c r="H14">
-        <v>1.241696670439438</v>
+        <v>1.01487023200167</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7259465520180868</v>
+        <v>2.137897791912934</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3990390107276269</v>
+        <v>1.147202387496876</v>
       </c>
       <c r="N14">
-        <v>2.186893438115291</v>
+        <v>1.295881522550999</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7269091733141124</v>
+        <v>1.970539381859794</v>
       </c>
       <c r="C15">
-        <v>0.08279086079059539</v>
+        <v>0.2932703520616258</v>
       </c>
       <c r="D15">
-        <v>0.1124241254733107</v>
+        <v>0.327509306390823</v>
       </c>
       <c r="E15">
-        <v>0.1744401403293807</v>
+        <v>0.4850774450293756</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.432710249493994</v>
+        <v>1.807670731481664</v>
       </c>
       <c r="H15">
-        <v>1.240623047293496</v>
+        <v>1.008023435094657</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7195353239934263</v>
+        <v>2.112609639163026</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3956508267718988</v>
+        <v>1.133409898923418</v>
       </c>
       <c r="N15">
-        <v>2.187506462965445</v>
+        <v>1.296126827254241</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6931824544190874</v>
+        <v>1.837021744059342</v>
       </c>
       <c r="C16">
-        <v>0.07761700841743391</v>
+        <v>0.2734719455100674</v>
       </c>
       <c r="D16">
-        <v>0.1066575790872832</v>
+        <v>0.3051912837831878</v>
       </c>
       <c r="E16">
-        <v>0.1663326912833298</v>
+        <v>0.4511598767708449</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.413294161711917</v>
+        <v>1.714280956860819</v>
       </c>
       <c r="H16">
-        <v>1.234630978456636</v>
+        <v>0.9695126510862906</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6828731068165723</v>
+        <v>1.968694269996178</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3762859845555013</v>
+        <v>1.055052167480419</v>
       </c>
       <c r="N16">
-        <v>2.191217171304174</v>
+        <v>1.298380351669593</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6725709532546489</v>
+        <v>1.755886551452306</v>
       </c>
       <c r="C17">
-        <v>0.07444522189258862</v>
+        <v>0.2614419557150143</v>
       </c>
       <c r="D17">
-        <v>0.1031311445434113</v>
+        <v>0.2916399374524019</v>
       </c>
       <c r="E17">
-        <v>0.1613827509842238</v>
+        <v>0.4306579591364113</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.401584642175635</v>
+        <v>1.65819917456119</v>
       </c>
       <c r="H17">
-        <v>1.231098045836319</v>
+        <v>0.9465025551558881</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6604513365452647</v>
+        <v>1.881238427769375</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3644518968540922</v>
+        <v>1.007548986965467</v>
       </c>
       <c r="N17">
-        <v>2.193669699223705</v>
+        <v>1.3004877051075</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6607446415588925</v>
+        <v>1.709482868092351</v>
       </c>
       <c r="C18">
-        <v>0.07262167844957901</v>
+        <v>0.2545615463998701</v>
       </c>
       <c r="D18">
-        <v>0.1011069092662922</v>
+        <v>0.2838932820680213</v>
       </c>
       <c r="E18">
-        <v>0.158544301292892</v>
+        <v>0.4189696282006992</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.394923528151224</v>
+        <v>1.626360252788032</v>
       </c>
       <c r="H18">
-        <v>1.229118492816497</v>
+        <v>0.9334814705838141</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6475803074610553</v>
+        <v>1.831218318121955</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3576618830092144</v>
+        <v>0.9804189730763326</v>
       </c>
       <c r="N18">
-        <v>2.19514493964347</v>
+        <v>1.301954163681316</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6567454098041594</v>
+        <v>1.693814640549419</v>
       </c>
       <c r="C19">
-        <v>0.07200439023364424</v>
+        <v>0.2522383156641439</v>
       </c>
       <c r="D19">
-        <v>0.100422235986386</v>
+        <v>0.2812782515391348</v>
       </c>
       <c r="E19">
-        <v>0.1575847237604364</v>
+        <v>0.4150292279203001</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.392680861200915</v>
+        <v>1.615649461899721</v>
       </c>
       <c r="H19">
-        <v>1.228457260998113</v>
+        <v>0.9291083379210932</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6432267485680541</v>
+        <v>1.814328694683695</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3553657473443792</v>
+        <v>0.9712648560795643</v>
       </c>
       <c r="N19">
-        <v>2.195655516872975</v>
+        <v>1.302493271865146</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6747620925435172</v>
+        <v>1.764495834300163</v>
       </c>
       <c r="C20">
-        <v>0.07478278223510415</v>
+        <v>0.2627184616806204</v>
       </c>
       <c r="D20">
-        <v>0.1035061170960745</v>
+        <v>0.2930774803777325</v>
       </c>
       <c r="E20">
-        <v>0.1619087858767259</v>
+        <v>0.4328294934235046</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.402823488407847</v>
+        <v>1.664125345026434</v>
       </c>
       <c r="H20">
-        <v>1.231468698048019</v>
+        <v>0.948929630963562</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6628355434584989</v>
+        <v>1.890518533803714</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3657099307054921</v>
+        <v>1.01258550836932</v>
       </c>
       <c r="N20">
-        <v>2.193401933812865</v>
+        <v>1.300236784535997</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7356411454967429</v>
+        <v>2.00526811594068</v>
       </c>
       <c r="C21">
-        <v>0.08412735040815278</v>
+        <v>0.298420737882708</v>
       </c>
       <c r="D21">
-        <v>0.1139164016852021</v>
+        <v>0.3333178493553817</v>
       </c>
       <c r="E21">
-        <v>0.1765407310717393</v>
+        <v>0.4939358819524173</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.437785601444062</v>
+        <v>1.832178910176367</v>
       </c>
       <c r="H21">
-        <v>1.242214341922988</v>
+        <v>1.01816676033377</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7290222920625808</v>
+        <v>2.150042747152128</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4006646518823729</v>
+        <v>1.153828917385205</v>
       </c>
       <c r="N21">
-        <v>2.186602977525141</v>
+        <v>1.295779349694172</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7756875985171519</v>
+        <v>2.165436308254868</v>
       </c>
       <c r="C22">
-        <v>0.0902421003896734</v>
+        <v>0.3221803104907508</v>
       </c>
       <c r="D22">
-        <v>0.1207569114959313</v>
+        <v>0.3601246740660287</v>
       </c>
       <c r="E22">
-        <v>0.1861822954207497</v>
+        <v>0.5349831812843746</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.461297696294537</v>
+        <v>1.946323357653398</v>
       </c>
       <c r="H22">
-        <v>1.249705965270948</v>
+        <v>1.06559199859467</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7725071329994648</v>
+        <v>2.322686540377617</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4236603916699693</v>
+        <v>1.248201844209547</v>
       </c>
       <c r="N22">
-        <v>2.182737285317131</v>
+        <v>1.295397037213078</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7542903380848998</v>
+        <v>2.07967040300008</v>
       </c>
       <c r="C23">
-        <v>0.08697782698899914</v>
+        <v>0.309456279127545</v>
       </c>
       <c r="D23">
-        <v>0.1171026130422916</v>
+        <v>0.345766693468164</v>
       </c>
       <c r="E23">
-        <v>0.1810291118592247</v>
+        <v>0.5129641756875074</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.448688034178389</v>
+        <v>1.884977282724265</v>
       </c>
       <c r="H23">
-        <v>1.245664595371693</v>
+        <v>1.040067234992136</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7492774989346174</v>
+        <v>2.230239400376433</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4113732055137547</v>
+        <v>1.197626567009507</v>
       </c>
       <c r="N23">
-        <v>2.184747487339919</v>
+        <v>1.295355767116263</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6737714052423769</v>
+        <v>1.76060282866689</v>
       </c>
       <c r="C24">
-        <v>0.07463017134044492</v>
+        <v>0.2621412426955345</v>
       </c>
       <c r="D24">
-        <v>0.1033365821738386</v>
+        <v>0.2924274304477024</v>
       </c>
       <c r="E24">
-        <v>0.1616709426745544</v>
+        <v>0.4318474379632349</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.402263185387795</v>
+        <v>1.661444873655228</v>
       </c>
       <c r="H24">
-        <v>1.231300965521825</v>
+        <v>0.9478317058688219</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6617575826594759</v>
+        <v>1.88632219534901</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3651411313972233</v>
+        <v>1.010307939469392</v>
       </c>
       <c r="N24">
-        <v>2.193522787305838</v>
+        <v>1.300349434563543</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5880217089342636</v>
+        <v>1.426281083642664</v>
       </c>
       <c r="C25">
-        <v>0.06134084134396289</v>
+        <v>0.2125563262896435</v>
       </c>
       <c r="D25">
-        <v>0.08864320381172774</v>
+        <v>0.2366784122590246</v>
       </c>
       <c r="E25">
-        <v>0.1411185635444241</v>
+        <v>0.3482357684408086</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.355008751530363</v>
+        <v>1.436032417127336</v>
       </c>
       <c r="H25">
-        <v>1.217813706960129</v>
+        <v>0.8563868946216928</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5683220290439124</v>
+        <v>1.525901773504529</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3159068272816086</v>
+        <v>0.8154581651550714</v>
       </c>
       <c r="N25">
-        <v>2.205457161484006</v>
+        <v>1.315339888632025</v>
       </c>
       <c r="O25">
         <v>0</v>
